--- a/biology/Microbiologie/Malawimonas/Malawimonas.xlsx
+++ b/biology/Microbiologie/Malawimonas/Malawimonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malawimonas est un genre d'excavés, le seul de la famille des Malawimonadidae, de l'ordre des Malawimonadida, de la classe des Malawimonadea et de l'embranchement des Neolouka.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (1 mars 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (1 mars 2019) :
 Malawimonas californiana
 Malawimonas jakobiformis O'Kelly &amp; Nerad, 1999</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>O'Kelly &amp; Nerad, 1999 Malawimonas jakobiformis n. gen., n. sp. (Malawimonadidae n. fam.): A Jakoba-like Heterotrophic Nanoflagellate with Discoidal Mitochondrial Cristae Journal of Eurkaryotic Microbiology, vol. 46, no 5, p. 522-531.
 Cavalier-Smith, 2003 : The excavate protozoan phyla Metamonada Grassé emend. (Anaeromonadea, Parabasalia, Carpediemonas, Eopharyngia) and Loukozoa emend. (Jakobea, Malawimonas): their evolutionary affinities and new higher taxa., International Journal of Systematic and Evolutionary Microbiology, vol. 53, p. 1741-1758.
